--- a/Documents/Pressupost.xlsx
+++ b/Documents/Pressupost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Plataforma de Visualització d'Alertes Sanitàries\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52CAD1A-8600-456A-8AC6-CA96C8F2F76F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31C6961-8281-4183-BFAE-A4076F77DE70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" activeTab="3" xr2:uid="{374C8DB7-D185-4E50-9D27-2B67AA1A51DD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
   <si>
     <t>COST</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Mòbil Iphone</t>
+  </si>
+  <si>
+    <t>Habitatge</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -691,47 +694,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -757,22 +719,72 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thick">
@@ -781,7 +793,168 @@
       <top style="thick">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -790,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -804,25 +977,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,16 +992,7 @@
     <xf numFmtId="8" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,19 +1034,19 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,13 +1067,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,7 +1082,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -975,19 +1127,64 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1045,27 +1242,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1077,6 +1253,90 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1402,509 +1662,513 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="78" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="19" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="68"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="69"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="68"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="68"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="69"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="68"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="68"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="69"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="O16" s="66"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="O16" s="55"/>
     </row>
     <row r="17" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="68"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="68"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="69"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="68"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="68"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="24"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="69"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="27"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="24"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="68"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="25"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="68"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="24"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="69"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="27"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="24"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="68"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="34"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="68"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
     </row>
     <row r="31" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="69"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="27"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="24"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="25"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="68"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="24"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="27"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="24"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="17"/>
     </row>
     <row r="37" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="68"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="34"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="68"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="48"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="41"/>
     </row>
     <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="49"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="42"/>
     </row>
     <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="68"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="49"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="42"/>
     </row>
     <row r="42" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="68"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
     </row>
     <row r="43" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
@@ -1919,10 +2183,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1963,271 +2223,271 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="2:8" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52">
+      <c r="D4" s="44"/>
+      <c r="E4" s="45">
         <v>44151</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="45">
         <v>44169</v>
       </c>
-      <c r="G4" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="51">
+      <c r="G4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="44">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55">
+      <c r="D5" s="47"/>
+      <c r="E5" s="48">
         <v>44172</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="48">
         <v>44197</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="47">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52">
+      <c r="D6" s="44"/>
+      <c r="E6" s="45">
         <v>44203</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="45">
         <v>44208</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="44">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55">
+      <c r="D7" s="47"/>
+      <c r="E7" s="48">
         <v>44193</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="48">
         <v>44218</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="47">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52">
+      <c r="D8" s="44"/>
+      <c r="E8" s="45">
         <v>44207</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="45">
         <v>44211</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="44">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48">
         <v>44200</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="48">
         <v>44202</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52">
+      <c r="D10" s="44"/>
+      <c r="E10" s="45">
         <v>44208</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="45">
         <v>44211</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="44">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58">
+      <c r="D11" s="50"/>
+      <c r="E11" s="51">
         <v>44218</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="51">
         <v>44225</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="50">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="61">
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="54">
         <f>SUM(H4:H11)</f>
         <v>156</v>
       </c>
@@ -2279,268 +2539,268 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="76"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
     </row>
     <row r="14" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
     </row>
     <row r="22" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="61">
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="54">
         <f>SUM(H4:H7,H9:H12,H14:H20,H22:H25)</f>
         <v>0</v>
       </c>
@@ -2560,49 +2820,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD9A88-5167-448D-832A-1042E55AC0DA}">
-  <dimension ref="B1:P18"/>
+  <dimension ref="B1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="90">
+      <c r="F2" s="100">
         <v>2020</v>
       </c>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="90">
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100">
         <v>2021</v>
       </c>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="88" t="s">
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="98" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="89"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="99"/>
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2633,632 +2894,659 @@
       <c r="O3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="89"/>
+      <c r="P3" s="99"/>
     </row>
     <row r="4" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="5">
+      <c r="D4" s="106"/>
+      <c r="E4" s="113">
         <v>1129</v>
       </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="8">
+      <c r="F4" s="114">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="72">
         <f>SUM(F4:O4)*E4</f>
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="84"/>
-      <c r="C5" s="86" t="s">
+        <v>376.33333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="92"/>
+      <c r="C5" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="14">
+      <c r="D5" s="108"/>
+      <c r="E5" s="122">
         <v>359</v>
       </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="8">
-        <f t="shared" ref="P5:P16" si="0">SUM(F5:O5)*E5</f>
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="84"/>
-      <c r="C6" s="86" t="s">
+      <c r="F5" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="112">
+        <f t="shared" ref="P5:P17" si="0">SUM(F5:O5)*E5</f>
+        <v>89.75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="92"/>
+      <c r="C6" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="65">
+      <c r="D6" s="104"/>
+      <c r="E6" s="115">
         <v>489</v>
       </c>
-      <c r="F6" s="62">
-        <v>1</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="F6" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>244.5</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="9">
+      <c r="D7" s="106"/>
+      <c r="E7" s="109">
         <v>35.479999999999997</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10">
-        <v>1</v>
-      </c>
-      <c r="N7" s="10">
-        <v>1</v>
-      </c>
-      <c r="O7" s="11">
-        <v>1</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="F7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="72">
         <f t="shared" si="0"/>
-        <v>354.79999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="84"/>
-      <c r="C8" s="86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="92"/>
+      <c r="C8" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="8">
+      <c r="D8" s="108"/>
+      <c r="E8" s="112">
         <v>23.16</v>
       </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7">
-        <v>1</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="F8" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="64">
+        <v>1</v>
+      </c>
+      <c r="H8" s="65">
+        <v>1</v>
+      </c>
+      <c r="I8" s="64">
+        <v>1</v>
+      </c>
+      <c r="J8" s="64">
+        <v>1</v>
+      </c>
+      <c r="K8" s="64">
+        <v>1</v>
+      </c>
+      <c r="L8" s="64">
+        <v>1</v>
+      </c>
+      <c r="M8" s="64">
+        <v>1</v>
+      </c>
+      <c r="N8" s="64">
+        <v>1</v>
+      </c>
+      <c r="O8" s="65">
+        <v>1</v>
+      </c>
+      <c r="P8" s="125">
         <f t="shared" si="0"/>
-        <v>231.6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="85"/>
-      <c r="C9" s="86" t="s">
+        <v>208.44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="92"/>
+      <c r="C9" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="9">
+      <c r="D9" s="108"/>
+      <c r="E9" s="74">
         <v>39.950000000000003</v>
       </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10">
-        <v>1</v>
-      </c>
-      <c r="N9" s="10">
-        <v>1</v>
-      </c>
-      <c r="O9" s="11">
-        <v>1</v>
-      </c>
-      <c r="P9" s="8">
-        <f t="shared" si="0"/>
-        <v>399.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="83" t="s">
+      <c r="F9" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="56">
+        <v>1</v>
+      </c>
+      <c r="H9" s="60">
+        <v>1</v>
+      </c>
+      <c r="I9" s="56">
+        <v>1</v>
+      </c>
+      <c r="J9" s="56">
+        <v>1</v>
+      </c>
+      <c r="K9" s="56">
+        <v>1</v>
+      </c>
+      <c r="L9" s="56">
+        <v>1</v>
+      </c>
+      <c r="M9" s="56">
+        <v>1</v>
+      </c>
+      <c r="N9" s="56">
+        <v>1</v>
+      </c>
+      <c r="O9" s="60">
+        <v>1</v>
+      </c>
+      <c r="P9" s="125">
+        <f>SUM(F9:O9)*E9</f>
+        <v>359.55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="93"/>
+      <c r="C10" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="104"/>
+      <c r="E10" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3</v>
+      </c>
+      <c r="M10" s="5">
+        <v>3</v>
+      </c>
+      <c r="N10" s="5">
+        <v>3</v>
+      </c>
+      <c r="O10" s="6">
+        <v>3</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" ref="P10" si="1">SUM(F10:O10)*E10</f>
+        <v>229.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C11" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D11" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="72">
         <v>8</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F11" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="57">
         <v>22</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="58">
         <v>54</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I11" s="57">
         <v>80</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="J11" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="72">
         <f t="shared" si="0"/>
         <v>1248</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="84"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="12" t="s">
+    <row r="12" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="92"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="74">
         <v>8</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="F12" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="56">
         <v>4</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K12" s="56">
         <v>8</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L12" s="56">
         <v>10</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M12" s="56">
         <v>8</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N12" s="56">
         <v>4</v>
       </c>
-      <c r="O11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="O12" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="125">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="84"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="12" t="s">
+    <row r="13" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="92"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="7">
         <v>8</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="F13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
         <v>16</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O13" s="6">
         <v>20</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P13" s="7">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="84"/>
-      <c r="C13" s="80" t="s">
+    <row r="14" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="92"/>
+      <c r="C14" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D14" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="67">
         <v>17.510000000000002</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="F14" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="61">
         <v>20</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="8">
+      <c r="J14" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="72">
         <f t="shared" si="0"/>
         <v>350.20000000000005</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="84"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="12" t="s">
+    <row r="15" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="92"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="70">
         <v>19.7621527777777</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="F15" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="64">
         <v>36</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="8">
+      <c r="K15" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="125">
         <f t="shared" si="0"/>
         <v>711.43749999999727</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="84"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="12" t="s">
+    <row r="16" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="92"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="69">
         <v>17.510000000000002</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10">
+      <c r="F16" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="56">
         <v>84</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L16" s="56">
         <v>60</v>
       </c>
-      <c r="M15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8">
+      <c r="M16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="125">
         <f t="shared" si="0"/>
         <v>2521.44</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="85"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="12" t="s">
+    <row r="17" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="93"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="7">
         <v>17.510000000000002</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="F17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
         <v>18</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M17" s="5">
         <v>80</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N17" s="5">
         <v>32</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" s="8">
+      <c r="O17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7">
         <f t="shared" si="0"/>
         <v>2276.3000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="77" t="s">
+    <row r="18" spans="2:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="13">
-        <f>SUM(P4:P16)</f>
-        <v>10630.277499999997</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="9">
+        <f>SUM(P4:P17)</f>
+        <v>9175.4508333333324</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B18:O18"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Pressupost.xlsx
+++ b/Documents/Pressupost.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Plataforma de Visualització d'Alertes Sanitàries\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31C6961-8281-4183-BFAE-A4076F77DE70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD52B4-EA81-44D9-8EFE-1F751318AB19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" activeTab="3" xr2:uid="{374C8DB7-D185-4E50-9D27-2B67AA1A51DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" activeTab="4" xr2:uid="{374C8DB7-D185-4E50-9D27-2B67AA1A51DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="4" r:id="rId1"/>
     <sheet name="Tasques Documentació" sheetId="5" r:id="rId2"/>
     <sheet name="Tasques Producte" sheetId="2" r:id="rId3"/>
     <sheet name="Pressupost" sheetId="3" r:id="rId4"/>
+    <sheet name="Casos d'ús" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="115">
   <si>
     <t>COST</t>
   </si>
@@ -358,6 +359,30 @@
   </si>
   <si>
     <t>Habitatge</t>
+  </si>
+  <si>
+    <t>NOM CAS D’ÚS</t>
+  </si>
+  <si>
+    <t>ACTOR</t>
+  </si>
+  <si>
+    <t>PRECONDICIONS</t>
+  </si>
+  <si>
+    <t>GARANTIES D’EXIT</t>
+  </si>
+  <si>
+    <t>FLUX BÀSIC</t>
+  </si>
+  <si>
+    <t>FLUX ALTERNATIU</t>
+  </si>
+  <si>
+    <t>REQUISITS ESPECIALS</t>
+  </si>
+  <si>
+    <t>LLISTA DE TECNOLOGIA I VARIACIONS DE DADES</t>
   </si>
 </sst>
 </file>
@@ -431,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,8 +535,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -959,11 +996,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1185,6 +1259,57 @@
     <xf numFmtId="8" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1224,6 +1349,33 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1242,32 +1394,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1281,62 +1412,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1662,47 +1751,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="80"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="95" t="s">
         <v>88</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="95" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="92" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="13"/>
@@ -1715,7 +1804,7 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="15"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1726,7 +1815,7 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="76"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1737,7 +1826,7 @@
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="77"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -1748,7 +1837,7 @@
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="92" t="s">
         <v>95</v>
       </c>
       <c r="C8" s="17"/>
@@ -1761,7 +1850,7 @@
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="76"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -1772,7 +1861,7 @@
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="76"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="17"/>
       <c r="D10" s="19"/>
       <c r="E10" s="17"/>
@@ -1783,7 +1872,7 @@
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="77"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
       <c r="E11" s="20"/>
@@ -1794,7 +1883,7 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="92" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="17"/>
@@ -1807,7 +1896,7 @@
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="76"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
@@ -1818,7 +1907,7 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="76"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="17"/>
       <c r="D14" s="19"/>
       <c r="E14" s="17"/>
@@ -1829,7 +1918,7 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="77"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
       <c r="E15" s="20"/>
@@ -1840,7 +1929,7 @@
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="92" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="17"/>
@@ -1854,7 +1943,7 @@
       <c r="O16" s="55"/>
     </row>
     <row r="17" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="76"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="E17" s="22"/>
@@ -1865,7 +1954,7 @@
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="76"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="17"/>
       <c r="D18" s="19"/>
       <c r="E18" s="22"/>
@@ -1876,7 +1965,7 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="77"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="23"/>
@@ -1887,7 +1976,7 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="92" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="24"/>
@@ -1900,7 +1989,7 @@
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="76"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="24"/>
       <c r="D21" s="26"/>
       <c r="E21" s="25"/>
@@ -1911,7 +2000,7 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="76"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -1922,7 +2011,7 @@
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="77"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -1933,7 +2022,7 @@
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="92" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="17"/>
@@ -1946,7 +2035,7 @@
       <c r="J24" s="17"/>
     </row>
     <row r="25" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="76"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -1957,7 +2046,7 @@
       <c r="J25" s="18"/>
     </row>
     <row r="26" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="76"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -1968,7 +2057,7 @@
       <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="77"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -1979,7 +2068,7 @@
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="92" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="17"/>
@@ -1992,7 +2081,7 @@
       <c r="J28" s="17"/>
     </row>
     <row r="29" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="76"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -2003,7 +2092,7 @@
       <c r="J29" s="27"/>
     </row>
     <row r="30" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="76"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -2014,7 +2103,7 @@
       <c r="J30" s="37"/>
     </row>
     <row r="31" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="77"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -2025,7 +2114,7 @@
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="92" t="s">
         <v>101</v>
       </c>
       <c r="C32" s="17"/>
@@ -2038,7 +2127,7 @@
       <c r="J32" s="17"/>
     </row>
     <row r="33" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="76"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -2049,7 +2138,7 @@
       <c r="J33" s="18"/>
     </row>
     <row r="34" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="76"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
@@ -2060,7 +2149,7 @@
       <c r="J34" s="17"/>
     </row>
     <row r="35" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="77"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
@@ -2071,7 +2160,7 @@
       <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="92" t="s">
         <v>102</v>
       </c>
       <c r="C36" s="17"/>
@@ -2084,7 +2173,7 @@
       <c r="J36" s="17"/>
     </row>
     <row r="37" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="76"/>
+      <c r="B37" s="93"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -2095,7 +2184,7 @@
       <c r="J37" s="27"/>
     </row>
     <row r="38" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="76"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -2106,7 +2195,7 @@
       <c r="J38" s="37"/>
     </row>
     <row r="39" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="77"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
@@ -2117,7 +2206,7 @@
       <c r="J39" s="41"/>
     </row>
     <row r="40" spans="2:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="92" t="s">
         <v>103</v>
       </c>
       <c r="C40" s="17"/>
@@ -2130,7 +2219,7 @@
       <c r="J40" s="42"/>
     </row>
     <row r="41" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="76"/>
+      <c r="B41" s="93"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -2141,7 +2230,7 @@
       <c r="J41" s="42"/>
     </row>
     <row r="42" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="76"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
@@ -2152,7 +2241,7 @@
       <c r="J42" s="17"/>
     </row>
     <row r="43" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="77"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
@@ -2165,24 +2254,24 @@
     <row r="44" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B43"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B20:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2223,15 +2312,15 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="2:8" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="43" t="s">
@@ -2402,15 +2491,15 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="43" t="s">
@@ -2446,15 +2535,15 @@
       <c r="H15" s="53"/>
     </row>
     <row r="16" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="101"/>
     </row>
     <row r="17" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43" t="s">
@@ -2479,14 +2568,14 @@
       <c r="H18" s="53"/>
     </row>
     <row r="19" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
       <c r="H19" s="54">
         <f>SUM(H4:H11)</f>
         <v>156</v>
@@ -2539,15 +2628,15 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="43" t="s">
@@ -2594,15 +2683,15 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="43" t="s">
@@ -2649,15 +2738,15 @@
       <c r="H12" s="50"/>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="14" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="43" t="s">
@@ -2737,15 +2826,15 @@
       <c r="H20" s="53"/>
     </row>
     <row r="21" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="43" t="s">
@@ -2792,14 +2881,14 @@
       <c r="H25" s="50"/>
     </row>
     <row r="26" spans="2:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="87"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104"/>
       <c r="H26" s="54">
         <f>SUM(H4:H7,H9:H12,H14:H20,H22:H25)</f>
         <v>0</v>
@@ -2822,7 +2911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD9A88-5167-448D-832A-1042E55AC0DA}">
   <dimension ref="B1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -2835,35 +2924,35 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="98" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="100">
+      <c r="F2" s="111">
         <v>2020</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="100">
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="111">
         <v>2021</v>
       </c>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="98" t="s">
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="109" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="99"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2894,20 +2983,20 @@
       <c r="O3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="99"/>
+      <c r="P3" s="110"/>
     </row>
     <row r="4" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="113">
+      <c r="D4" s="125"/>
+      <c r="E4" s="79">
         <v>1129</v>
       </c>
-      <c r="F4" s="114">
+      <c r="F4" s="80">
         <v>0.33333333333333331</v>
       </c>
       <c r="G4" s="57" t="s">
@@ -2943,86 +3032,86 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="92"/>
-      <c r="C5" s="107" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="122">
+      <c r="D5" s="121"/>
+      <c r="E5" s="88">
         <v>359</v>
       </c>
       <c r="F5" s="59">
         <v>0.25</v>
       </c>
-      <c r="G5" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="124" t="s">
+      <c r="G5" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="90" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="112">
+      <c r="J5" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="78">
         <f t="shared" ref="P5:P17" si="0">SUM(F5:O5)*E5</f>
         <v>89.75</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="92"/>
-      <c r="C6" s="103" t="s">
+      <c r="B6" s="118"/>
+      <c r="C6" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="115">
+      <c r="D6" s="123"/>
+      <c r="E6" s="81">
         <v>489</v>
       </c>
-      <c r="F6" s="116">
+      <c r="F6" s="82">
         <v>0.5</v>
       </c>
-      <c r="G6" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="121" t="s">
+      <c r="G6" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="87" t="s">
         <v>1</v>
       </c>
       <c r="P6" s="7">
@@ -3031,40 +3120,40 @@
       </c>
     </row>
     <row r="7" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="109">
+      <c r="D7" s="125"/>
+      <c r="E7" s="75">
         <v>35.479999999999997</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="111"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="111"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="77"/>
       <c r="P7" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="92"/>
-      <c r="C8" s="107" t="s">
+      <c r="B8" s="118"/>
+      <c r="C8" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="112">
+      <c r="D8" s="121"/>
+      <c r="E8" s="78">
         <v>23.16</v>
       </c>
       <c r="F8" s="64" t="s">
@@ -3097,17 +3186,17 @@
       <c r="O8" s="65">
         <v>1</v>
       </c>
-      <c r="P8" s="125">
+      <c r="P8" s="91">
         <f t="shared" si="0"/>
         <v>208.44</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="92"/>
-      <c r="C9" s="107" t="s">
+      <c r="B9" s="118"/>
+      <c r="C9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="121"/>
       <c r="E9" s="74">
         <v>39.950000000000003</v>
       </c>
@@ -3141,17 +3230,17 @@
       <c r="O9" s="60">
         <v>1</v>
       </c>
-      <c r="P9" s="125">
+      <c r="P9" s="91">
         <f>SUM(F9:O9)*E9</f>
         <v>359.55</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="93"/>
-      <c r="C10" s="103" t="s">
+      <c r="B10" s="119"/>
+      <c r="C10" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="7">
         <v>8.5</v>
       </c>
@@ -3191,10 +3280,10 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="114" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="71" t="s">
@@ -3239,8 +3328,8 @@
       </c>
     </row>
     <row r="12" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="92"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="73" t="s">
         <v>79</v>
       </c>
@@ -3277,14 +3366,14 @@
       <c r="O12" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="P12" s="125">
+      <c r="P12" s="91">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="92"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="8" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3416,8 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="92"/>
-      <c r="C14" s="88" t="s">
+      <c r="B14" s="118"/>
+      <c r="C14" s="114" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="66" t="s">
@@ -3373,8 +3462,8 @@
       </c>
     </row>
     <row r="15" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="92"/>
-      <c r="C15" s="89"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="68" t="s">
         <v>83</v>
       </c>
@@ -3411,14 +3500,14 @@
       <c r="O15" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="P15" s="125">
+      <c r="P15" s="91">
         <f t="shared" si="0"/>
         <v>711.43749999999727</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="92"/>
-      <c r="C16" s="89"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="68" t="s">
         <v>84</v>
       </c>
@@ -3455,14 +3544,14 @@
       <c r="O16" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="P16" s="125">
+      <c r="P16" s="91">
         <f t="shared" si="0"/>
         <v>2521.44</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="93"/>
-      <c r="C17" s="90"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="8" t="s">
         <v>85</v>
       </c>
@@ -3505,22 +3594,22 @@
       </c>
     </row>
     <row r="18" spans="2:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="87"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="104"/>
       <c r="P18" s="9">
         <f>SUM(P4:P17)</f>
         <v>9175.4508333333324</v>
@@ -3529,11 +3618,6 @@
     <row r="19" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:P3"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="C14:C17"/>
@@ -3547,7 +3631,86 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A016D0-3F04-4032-A271-52B4528D6CE9}">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="130"/>
+    </row>
+    <row r="3" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="127"/>
+    </row>
+    <row r="4" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="128"/>
+    </row>
+    <row r="5" spans="2:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="127"/>
+    </row>
+    <row r="6" spans="2:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="128"/>
+    </row>
+    <row r="7" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="126" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="127"/>
+    </row>
+    <row r="8" spans="2:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="128"/>
+    </row>
+    <row r="9" spans="2:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="127"/>
+    </row>
+    <row r="10" spans="2:3" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="128"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>